--- a/Dokumentacija/bug list.xlsx
+++ b/Dokumentacija/bug list.xlsx
@@ -8,24 +8,34 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander Meliochin\OneDrive - Nordic Transport Group\projektas\CentasPrieCento\Dokumentacija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1559444-F981-4089-B544-F8AC2407AEE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC122D6-36B1-4CA7-B1B9-B772C8C6306B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Test Cases" sheetId="1" r:id="rId1"/>
+    <sheet name="Lighthouse" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
   <si>
     <t>CPC-1</t>
   </si>
@@ -214,13 +224,88 @@
   </si>
   <si>
     <t>LT Kalba</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+First Contentful Paint</t>
+  </si>
+  <si>
+    <t>Speed Index</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Largest Contentful Paint</t>
+  </si>
+  <si>
+    <t>Time to Interactive</t>
+  </si>
+  <si>
+    <t>Total Blocking Time</t>
+  </si>
+  <si>
+    <t xml:space="preserve">
+Cumulative Layout Shift</t>
+  </si>
+  <si>
+    <t>First Contentful Paint marks the time at which the first text or image is painted</t>
+  </si>
+  <si>
+    <t>Speed Index shows how quickly the contents of a page are visibly populated.</t>
+  </si>
+  <si>
+    <t>Largest Contentful Paint marks the time at which the largest text or image is painted.</t>
+  </si>
+  <si>
+    <t>Time to interactive is the amount of time it takes for the page to become fully interactive.</t>
+  </si>
+  <si>
+    <t>Sum of all time periods between FCP and Time to Interactive, when task length exceeded 50ms, expressed in milliseconds.</t>
+  </si>
+  <si>
+    <t>PERFORMANCE</t>
+  </si>
+  <si>
+    <t>Entiries</t>
+  </si>
+  <si>
+    <t>Units</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>s</t>
+  </si>
+  <si>
+    <t>ms</t>
+  </si>
+  <si>
+    <t>What to improve:</t>
+  </si>
+  <si>
+    <t>For page to load faster</t>
+  </si>
+  <si>
+    <t>Minify JavaScript</t>
+  </si>
+  <si>
+    <t>Avoid an excessive DOM size</t>
+  </si>
+  <si>
+    <t>Minimize main-thread work</t>
+  </si>
+  <si>
+    <t>Reduce unused JavaScript</t>
+  </si>
+  <si>
+    <t>Reduce JavaScript execution time</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -234,16 +319,45 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -251,16 +365,222 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="38">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -543,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B11:G47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J20" sqref="J20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -982,4 +1302,411 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0B671113-5153-4DBB-A850-D2675849F616}">
+  <dimension ref="B2:U26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="P19" sqref="P19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="22.85546875" customWidth="1"/>
+    <col min="3" max="3" width="5.85546875" customWidth="1"/>
+    <col min="4" max="4" width="8.140625" customWidth="1"/>
+    <col min="5" max="9" width="10.7109375" customWidth="1"/>
+    <col min="10" max="10" width="20.7109375" customWidth="1"/>
+    <col min="16" max="21" width="20.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D3" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="E3" s="12">
+        <v>0</v>
+      </c>
+      <c r="F3" s="12">
+        <v>10</v>
+      </c>
+      <c r="G3" s="12">
+        <v>100</v>
+      </c>
+      <c r="H3" s="12">
+        <v>500</v>
+      </c>
+      <c r="I3" s="12">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="25"/>
+      <c r="C4" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D4" s="17"/>
+      <c r="E4" s="18"/>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13"/>
+      <c r="P4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="26" t="s">
+        <v>74</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="D5" s="35"/>
+      <c r="E5" s="36">
+        <v>68</v>
+      </c>
+      <c r="F5" s="20">
+        <v>67</v>
+      </c>
+      <c r="G5" s="20">
+        <v>59</v>
+      </c>
+      <c r="H5" s="20">
+        <v>52</v>
+      </c>
+      <c r="I5" s="20">
+        <v>48</v>
+      </c>
+      <c r="P5" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q5" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="R5" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="S5" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="T5" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="U5" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="11"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="6"/>
+      <c r="R6" s="6"/>
+      <c r="S6" s="6"/>
+      <c r="T6" s="6"/>
+      <c r="U6" s="6"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D7" s="29"/>
+      <c r="E7" s="30">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="21">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="6"/>
+      <c r="Q7" s="6"/>
+      <c r="R7" s="6"/>
+      <c r="S7" s="6"/>
+      <c r="T7" s="6"/>
+      <c r="U7" s="6"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="10"/>
+      <c r="E8" s="11"/>
+      <c r="F8" s="14"/>
+      <c r="G8" s="14"/>
+      <c r="H8" s="14"/>
+      <c r="I8" s="14"/>
+      <c r="P8" s="6"/>
+      <c r="Q8" s="6"/>
+      <c r="R8" s="6"/>
+      <c r="S8" s="6"/>
+      <c r="T8" s="6"/>
+      <c r="U8" s="6"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="26" t="s">
+        <v>64</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D9" s="29"/>
+      <c r="E9" s="30">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="21">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="21">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H9" s="22">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="22">
+        <v>2</v>
+      </c>
+      <c r="P9" s="6"/>
+      <c r="Q9" s="6"/>
+      <c r="R9" s="6"/>
+      <c r="S9" s="6"/>
+      <c r="T9" s="6"/>
+      <c r="U9" s="6"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="14"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="27"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="14"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="14"/>
+      <c r="P10" s="6"/>
+      <c r="Q10" s="6"/>
+      <c r="R10" s="6"/>
+      <c r="S10" s="6"/>
+      <c r="T10" s="6"/>
+      <c r="U10" s="6"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="C11" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D11" s="31"/>
+      <c r="E11" s="32">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F11" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G11" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H11" s="22">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I11" s="22">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P11" s="6"/>
+      <c r="Q11" s="6"/>
+      <c r="R11" s="6"/>
+      <c r="S11" s="6"/>
+      <c r="T11" s="6"/>
+      <c r="U11" s="6"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="14"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="14"/>
+      <c r="G12" s="14"/>
+      <c r="H12" s="14"/>
+      <c r="I12" s="14"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="26" t="s">
+        <v>66</v>
+      </c>
+      <c r="C13" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D13" s="29"/>
+      <c r="E13" s="30">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F13" s="21">
+        <v>2.4</v>
+      </c>
+      <c r="G13" s="22">
+        <v>2.8</v>
+      </c>
+      <c r="H13" s="22">
+        <v>3.9</v>
+      </c>
+      <c r="I13" s="22">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="14"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="27"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="14"/>
+      <c r="G14" s="14"/>
+      <c r="H14" s="14"/>
+      <c r="I14" s="14"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="26" t="s">
+        <v>67</v>
+      </c>
+      <c r="C15" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="D15" s="31"/>
+      <c r="E15" s="32">
+        <v>440</v>
+      </c>
+      <c r="F15" s="22">
+        <v>470</v>
+      </c>
+      <c r="G15" s="22">
+        <v>780</v>
+      </c>
+      <c r="H15" s="22">
+        <v>1790</v>
+      </c>
+      <c r="I15" s="22">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="14"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="14"/>
+      <c r="G16" s="14"/>
+      <c r="H16" s="14"/>
+      <c r="I16" s="14"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="23" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="23"/>
+      <c r="D17" s="33"/>
+      <c r="E17" s="34">
+        <v>0</v>
+      </c>
+      <c r="F17" s="24">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="G17" s="24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="H17" s="24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+      <c r="I17" s="24">
+        <v>7.4999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="37" t="s">
+        <v>80</v>
+      </c>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8"/>
+      <c r="E20" s="8"/>
+      <c r="F20" s="8"/>
+      <c r="G20" s="8"/>
+      <c r="H20" s="8"/>
+      <c r="I20" s="9"/>
+    </row>
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B24" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
+        <v>86</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="7">
+    <mergeCell ref="T5:T11"/>
+    <mergeCell ref="U5:U11"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="P5:P11"/>
+    <mergeCell ref="Q5:Q11"/>
+    <mergeCell ref="R5:R11"/>
+    <mergeCell ref="S5:S11"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/Dokumentacija/bug list.xlsx
+++ b/Dokumentacija/bug list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander Meliochin\OneDrive - Nordic Transport Group\projektas\CentasPrieCento\Dokumentacija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBC122D6-36B1-4CA7-B1B9-B772C8C6306B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D94A90-6F2E-4056-AAB0-92E43D613A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
   <si>
     <t>CPC-1</t>
   </si>
@@ -152,9 +152,6 @@
   </si>
   <si>
     <t>Jira</t>
-  </si>
-  <si>
-    <t>000032</t>
   </si>
   <si>
     <t>000033</t>
@@ -299,6 +296,12 @@
   </si>
   <si>
     <t>Reduce JavaScript execution time</t>
+  </si>
+  <si>
+    <t>Viso</t>
+  </si>
+  <si>
+    <t>0032</t>
   </si>
 </sst>
 </file>
@@ -531,9 +534,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
@@ -550,12 +550,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -581,6 +575,15 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -596,6 +599,1741 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test Cases'!$B$4</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>1st sprint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Test Cases'!$E$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Kritinės klaidos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nekritinės klaidos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Patikrinimu kiekis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test Cases'!$E$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>52</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-55DA-4105-87B1-7520A559A272}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:doughnutChart>
+        <c:varyColors val="1"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>'Test Cases'!$B$13</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>2nd sprint</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:dPt>
+            <c:idx val="0"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="1"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dPt>
+            <c:idx val="2"/>
+            <c:bubble3D val="0"/>
+            <c:spPr>
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:ln w="19050">
+                <a:solidFill>
+                  <a:schemeClr val="lt1"/>
+                </a:solidFill>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+          </c:dPt>
+          <c:dLbls>
+            <c:spPr>
+              <a:noFill/>
+              <a:ln>
+                <a:noFill/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:txPr>
+              <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+                <a:spAutoFit/>
+              </a:bodyPr>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                    <a:solidFill>
+                      <a:schemeClr val="tx1">
+                        <a:lumMod val="75000"/>
+                        <a:lumOff val="25000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                    <a:ea typeface="+mn-ea"/>
+                    <a:cs typeface="+mn-cs"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:endParaRPr lang="en-US"/>
+              </a:p>
+            </c:txPr>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="1"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="1"/>
+            <c:leaderLines>
+              <c:spPr>
+                <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="35000"/>
+                      <a:lumOff val="65000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:round/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+            </c:leaderLines>
+            <c:extLst>
+              <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+            </c:extLst>
+          </c:dLbls>
+          <c:cat>
+            <c:strRef>
+              <c:f>'Test Cases'!$E$3:$G$3</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Kritinės klaidos</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Nekritinės klaidos</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Patikrinimu kiekis</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>'Test Cases'!$E$22:$G$22</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>51</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000008-479F-4DE6-BA7C-54FE99CB3D78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="1"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:showLeaderLines val="1"/>
+        </c:dLbls>
+        <c:firstSliceAng val="0"/>
+        <c:holeSize val="75"/>
+      </c:doughnutChart>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="251">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="25400">
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F617E71D-C1C7-45D9-95B3-E91AB2B602D9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{651A3FEA-0515-4BB8-B003-1283CA524BEF}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -861,10 +2599,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B11:G47"/>
+  <dimension ref="B3:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J20" sqref="J20"/>
+      <selection activeCell="S28" sqref="S28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -875,425 +2613,458 @@
     <col min="7" max="7" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C11" s="1" t="s">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C3" s="1" t="s">
         <v>37</v>
       </c>
+      <c r="D3" t="s">
+        <v>38</v>
+      </c>
+      <c r="E3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F3" t="s">
+        <v>24</v>
+      </c>
+      <c r="G3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C5" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="F5">
+        <v>5</v>
+      </c>
+      <c r="G5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C6" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D6" t="s">
+        <v>6</v>
+      </c>
+      <c r="E6">
+        <v>2</v>
+      </c>
+      <c r="F6">
+        <v>2</v>
+      </c>
+      <c r="G6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C7" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="D7" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D9" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9">
+        <v>3</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" t="s">
+        <v>15</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C11" s="2" t="s">
+        <v>48</v>
+      </c>
       <c r="D11" t="s">
-        <v>38</v>
-      </c>
-      <c r="E11" t="s">
-        <v>23</v>
-      </c>
-      <c r="F11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G11" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C13" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13" t="s">
-        <v>4</v>
-      </c>
-      <c r="E13">
+        <v>16</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <v>9</v>
+      </c>
+      <c r="G11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C12" s="2"/>
+      <c r="E12">
+        <f t="shared" ref="E12:F12" si="0">SUM(E5:E11)</f>
+        <v>7</v>
+      </c>
+      <c r="F12">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+      <c r="G12">
+        <f>SUM(G5:G11)</f>
+        <v>52</v>
+      </c>
+      <c r="H12" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="2"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C14" s="2"/>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C15" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="D15" t="s">
         <v>1</v>
       </c>
-      <c r="F13">
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
         <v>5</v>
       </c>
-      <c r="G13">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C14" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="D14" t="s">
-        <v>6</v>
-      </c>
-      <c r="E14">
+      <c r="G15">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C16" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="D16" t="s">
         <v>2</v>
       </c>
-      <c r="F14">
-        <v>2</v>
-      </c>
-      <c r="G14">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C15" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="D15" t="s">
-        <v>9</v>
-      </c>
-      <c r="E15">
+      <c r="E16">
         <v>0</v>
       </c>
-      <c r="F15">
-        <v>2</v>
-      </c>
-      <c r="G15">
+      <c r="F16">
+        <v>0</v>
+      </c>
+      <c r="G16">
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C16" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="D16" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>5</v>
-      </c>
-      <c r="G16">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="F17">
+        <v>0</v>
+      </c>
+      <c r="G17">
         <v>3</v>
       </c>
-      <c r="F17">
-        <v>2</v>
-      </c>
-      <c r="G17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="D18" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
+        <v>3</v>
+      </c>
+      <c r="G18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C19" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="D19" t="s">
+        <v>19</v>
+      </c>
+      <c r="E19">
         <v>2</v>
       </c>
-      <c r="G18">
+      <c r="F19">
+        <v>0</v>
+      </c>
+      <c r="G19">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C20" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C21" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>10</v>
+      </c>
+      <c r="G21">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" s="2"/>
+      <c r="E22">
+        <f>SUM(E15:E21)</f>
+        <v>4</v>
+      </c>
+      <c r="F22">
+        <f>SUM(F15:F21)</f>
+        <v>18</v>
+      </c>
+      <c r="G22">
+        <f>SUM(G15:G21)</f>
+        <v>51</v>
+      </c>
+      <c r="H22" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C23" s="2"/>
+    </row>
+    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C24" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="D24" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C25" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C26" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C27" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C28" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D28" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C29" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C30" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C31" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C32" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="D32" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C33" s="2"/>
+      <c r="D33" t="s">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C34" s="2"/>
+      <c r="D34" t="s">
+        <v>3</v>
+      </c>
+      <c r="E34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C35" s="2"/>
+      <c r="D35" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="D19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>9</v>
-      </c>
-      <c r="G19">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B20" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="2"/>
-    </row>
-    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C21" s="2"/>
-    </row>
-    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C22" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="D22" t="s">
-        <v>1</v>
-      </c>
-      <c r="E22">
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <v>5</v>
-      </c>
-      <c r="G22">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C23" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" t="s">
-        <v>2</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
-      </c>
-      <c r="F23">
-        <v>0</v>
-      </c>
-      <c r="G23">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="D24" t="s">
-        <v>17</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
-      </c>
-      <c r="F24">
-        <v>0</v>
-      </c>
-      <c r="G24">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C25" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="D25" t="s">
-        <v>18</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>3</v>
-      </c>
-      <c r="G25">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C26" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="D26" t="s">
-        <v>19</v>
-      </c>
-      <c r="E26">
-        <v>2</v>
-      </c>
-      <c r="F26">
-        <v>0</v>
-      </c>
-      <c r="G26">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C27" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="D27" t="s">
-        <v>20</v>
-      </c>
-      <c r="E27">
-        <v>0</v>
-      </c>
-      <c r="F27">
-        <v>0</v>
-      </c>
-      <c r="G27">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C28" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="D28" t="s">
-        <v>21</v>
-      </c>
-      <c r="E28">
-        <v>0</v>
-      </c>
-      <c r="F28">
+      <c r="E35" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C36" s="2"/>
+      <c r="D36" t="s">
+        <v>7</v>
+      </c>
+      <c r="E36" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C37" s="2"/>
+      <c r="D37" t="s">
+        <v>8</v>
+      </c>
+      <c r="E37" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
+      <c r="C38" s="2"/>
+      <c r="D38" t="s">
         <v>10</v>
       </c>
-      <c r="G28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="B29" t="s">
-        <v>36</v>
-      </c>
-      <c r="C29" s="2"/>
-    </row>
-    <row r="30" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C30" s="2"/>
-    </row>
-    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C31" s="2" t="s">
-        <v>39</v>
-      </c>
-      <c r="D31" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="32" spans="2:7" x14ac:dyDescent="0.25">
-      <c r="C32" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C33" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="D33" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C34" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="D34" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="35" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C35" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="D35" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="36" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C36" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="D36" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="37" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C37" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="D37" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="38" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C38" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D38" t="s">
-        <v>31</v>
+      <c r="E38" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="39" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C39" s="2" t="s">
-        <v>47</v>
-      </c>
+      <c r="C39" s="2"/>
       <c r="D39" t="s">
-        <v>0</v>
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>33</v>
       </c>
     </row>
     <row r="40" spans="3:5" x14ac:dyDescent="0.25">
       <c r="C40" s="2"/>
       <c r="D40" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="41" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C41" s="2"/>
-      <c r="D41" t="s">
-        <v>3</v>
-      </c>
-      <c r="E41" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="42" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C42" s="2"/>
-      <c r="D42" t="s">
-        <v>5</v>
-      </c>
-      <c r="E42" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="43" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C43" s="2"/>
-      <c r="D43" t="s">
-        <v>7</v>
-      </c>
-      <c r="E43" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="44" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C44" s="2"/>
-      <c r="D44" t="s">
-        <v>8</v>
-      </c>
-      <c r="E44" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="45" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C45" s="2"/>
-      <c r="D45" t="s">
-        <v>10</v>
-      </c>
-      <c r="E45" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="46" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C46" s="2"/>
-      <c r="D46" t="s">
-        <v>11</v>
-      </c>
-      <c r="E46" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="47" spans="3:5" x14ac:dyDescent="0.25">
-      <c r="C47" s="2"/>
-      <c r="D47" t="s">
-        <v>12</v>
-      </c>
-      <c r="E47" t="s">
         <v>33</v>
       </c>
     </row>
@@ -1301,6 +3072,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -1324,376 +3096,376 @@
   <sheetData>
     <row r="2" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="3" spans="2:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="E3" s="11">
+        <v>0</v>
+      </c>
+      <c r="F3" s="11">
+        <v>10</v>
+      </c>
+      <c r="G3" s="11">
+        <v>100</v>
+      </c>
+      <c r="H3" s="11">
+        <v>500</v>
+      </c>
+      <c r="I3" s="11">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="4" spans="2:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="B4" s="22"/>
+      <c r="C4" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="12">
+      <c r="D4" s="36"/>
+      <c r="E4" s="37"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="P4" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="Q4" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="R4" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="T4" s="5" t="s">
+        <v>66</v>
+      </c>
+      <c r="U4" s="5" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5" spans="2:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="23" t="s">
+        <v>73</v>
+      </c>
+      <c r="C5" s="16" t="s">
+        <v>76</v>
+      </c>
+      <c r="D5" s="32"/>
+      <c r="E5" s="33">
+        <v>68</v>
+      </c>
+      <c r="F5" s="17">
+        <v>67</v>
+      </c>
+      <c r="G5" s="17">
+        <v>59</v>
+      </c>
+      <c r="H5" s="17">
+        <v>52</v>
+      </c>
+      <c r="I5" s="17">
+        <v>48</v>
+      </c>
+      <c r="P5" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q5" s="35" t="s">
+        <v>69</v>
+      </c>
+      <c r="R5" s="35" t="s">
+        <v>70</v>
+      </c>
+      <c r="S5" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="T5" s="35" t="s">
+        <v>72</v>
+      </c>
+      <c r="U5" s="35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="13"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="13"/>
+      <c r="P6" s="35"/>
+      <c r="Q6" s="35"/>
+      <c r="R6" s="35"/>
+      <c r="S6" s="35"/>
+      <c r="T6" s="35"/>
+      <c r="U6" s="35"/>
+    </row>
+    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B7" s="23" t="s">
+        <v>62</v>
+      </c>
+      <c r="C7" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D7" s="26"/>
+      <c r="E7" s="27">
+        <v>0.4</v>
+      </c>
+      <c r="F7" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="G7" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="H7" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="I7" s="18">
+        <v>0.5</v>
+      </c>
+      <c r="P7" s="35"/>
+      <c r="Q7" s="35"/>
+      <c r="R7" s="35"/>
+      <c r="S7" s="35"/>
+      <c r="T7" s="35"/>
+      <c r="U7" s="35"/>
+    </row>
+    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B8" s="14"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="10"/>
+      <c r="F8" s="13"/>
+      <c r="G8" s="13"/>
+      <c r="H8" s="13"/>
+      <c r="I8" s="13"/>
+      <c r="P8" s="35"/>
+      <c r="Q8" s="35"/>
+      <c r="R8" s="35"/>
+      <c r="S8" s="35"/>
+      <c r="T8" s="35"/>
+      <c r="U8" s="35"/>
+    </row>
+    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B9" s="23" t="s">
+        <v>63</v>
+      </c>
+      <c r="C9" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D9" s="26"/>
+      <c r="E9" s="27">
+        <v>0.8</v>
+      </c>
+      <c r="F9" s="18">
+        <v>0.9</v>
+      </c>
+      <c r="G9" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="H9" s="19">
+        <v>1.5</v>
+      </c>
+      <c r="I9" s="19">
+        <v>2</v>
+      </c>
+      <c r="P9" s="35"/>
+      <c r="Q9" s="35"/>
+      <c r="R9" s="35"/>
+      <c r="S9" s="35"/>
+      <c r="T9" s="35"/>
+      <c r="U9" s="35"/>
+    </row>
+    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B10" s="13"/>
+      <c r="C10" s="13"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="13"/>
+      <c r="H10" s="13"/>
+      <c r="I10" s="13"/>
+      <c r="P10" s="35"/>
+      <c r="Q10" s="35"/>
+      <c r="R10" s="35"/>
+      <c r="S10" s="35"/>
+      <c r="T10" s="35"/>
+      <c r="U10" s="35"/>
+    </row>
+    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B11" s="23" t="s">
+        <v>64</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="28"/>
+      <c r="E11" s="29">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F11" s="19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="G11" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="H11" s="19">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="I11" s="19">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="P11" s="35"/>
+      <c r="Q11" s="35"/>
+      <c r="R11" s="35"/>
+      <c r="S11" s="35"/>
+      <c r="T11" s="35"/>
+      <c r="U11" s="35"/>
+    </row>
+    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B12" s="13"/>
+      <c r="C12" s="13"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="13"/>
+      <c r="G12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+    </row>
+    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B13" s="23" t="s">
+        <v>65</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="26"/>
+      <c r="E13" s="27">
+        <v>2.2999999999999998</v>
+      </c>
+      <c r="F13" s="18">
+        <v>2.4</v>
+      </c>
+      <c r="G13" s="19">
+        <v>2.8</v>
+      </c>
+      <c r="H13" s="19">
+        <v>3.9</v>
+      </c>
+      <c r="I13" s="19">
+        <v>5.3</v>
+      </c>
+    </row>
+    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B14" s="13"/>
+      <c r="C14" s="13"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="13"/>
+      <c r="G14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+    </row>
+    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B15" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="28"/>
+      <c r="E15" s="29">
+        <v>440</v>
+      </c>
+      <c r="F15" s="19">
+        <v>470</v>
+      </c>
+      <c r="G15" s="19">
+        <v>780</v>
+      </c>
+      <c r="H15" s="19">
+        <v>1790</v>
+      </c>
+      <c r="I15" s="19">
+        <v>3550</v>
+      </c>
+    </row>
+    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
+      <c r="B16" s="13"/>
+      <c r="C16" s="13"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="13"/>
+      <c r="G16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+    </row>
+    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="20" t="s">
+        <v>67</v>
+      </c>
+      <c r="C17" s="20"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="31">
         <v>0</v>
       </c>
-      <c r="F3" s="12">
-        <v>10</v>
-      </c>
-      <c r="G3" s="12">
-        <v>100</v>
-      </c>
-      <c r="H3" s="12">
-        <v>500</v>
-      </c>
-      <c r="I3" s="12">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="4" spans="2:21" s="4" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="25"/>
-      <c r="C4" s="16" t="s">
-        <v>76</v>
-      </c>
-      <c r="D4" s="17"/>
-      <c r="E4" s="18"/>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="13"/>
-      <c r="I4" s="13"/>
-      <c r="P4" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="Q4" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="R4" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="S4" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="T4" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="U4" s="5" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="2:21" s="3" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="26" t="s">
-        <v>74</v>
-      </c>
-      <c r="C5" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="D5" s="35"/>
-      <c r="E5" s="36">
-        <v>68</v>
-      </c>
-      <c r="F5" s="20">
-        <v>67</v>
-      </c>
-      <c r="G5" s="20">
-        <v>59</v>
-      </c>
-      <c r="H5" s="20">
-        <v>52</v>
-      </c>
-      <c r="I5" s="20">
-        <v>48</v>
-      </c>
-      <c r="P5" s="6" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q5" s="6" t="s">
-        <v>70</v>
-      </c>
-      <c r="R5" s="6" t="s">
-        <v>71</v>
-      </c>
-      <c r="S5" s="6" t="s">
-        <v>72</v>
-      </c>
-      <c r="T5" s="6" t="s">
-        <v>73</v>
-      </c>
-      <c r="U5" s="6" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="6" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="10"/>
-      <c r="E6" s="11"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="P6" s="6"/>
-      <c r="Q6" s="6"/>
-      <c r="R6" s="6"/>
-      <c r="S6" s="6"/>
-      <c r="T6" s="6"/>
-      <c r="U6" s="6"/>
-    </row>
-    <row r="7" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B7" s="26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D7" s="29"/>
-      <c r="E7" s="30">
-        <v>0.4</v>
-      </c>
-      <c r="F7" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="G7" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="H7" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="I7" s="21">
-        <v>0.5</v>
-      </c>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-    </row>
-    <row r="8" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="10"/>
-      <c r="E8" s="11"/>
-      <c r="F8" s="14"/>
-      <c r="G8" s="14"/>
-      <c r="H8" s="14"/>
-      <c r="I8" s="14"/>
-      <c r="P8" s="6"/>
-      <c r="Q8" s="6"/>
-      <c r="R8" s="6"/>
-      <c r="S8" s="6"/>
-      <c r="T8" s="6"/>
-      <c r="U8" s="6"/>
-    </row>
-    <row r="9" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B9" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="30">
-        <v>0.8</v>
-      </c>
-      <c r="F9" s="21">
-        <v>0.9</v>
-      </c>
-      <c r="G9" s="21">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="H9" s="22">
-        <v>1.5</v>
-      </c>
-      <c r="I9" s="22">
-        <v>2</v>
-      </c>
-      <c r="P9" s="6"/>
-      <c r="Q9" s="6"/>
-      <c r="R9" s="6"/>
-      <c r="S9" s="6"/>
-      <c r="T9" s="6"/>
-      <c r="U9" s="6"/>
-    </row>
-    <row r="10" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B10" s="14"/>
-      <c r="C10" s="14"/>
-      <c r="D10" s="27"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="14"/>
-      <c r="G10" s="14"/>
-      <c r="H10" s="14"/>
-      <c r="I10" s="14"/>
-      <c r="P10" s="6"/>
-      <c r="Q10" s="6"/>
-      <c r="R10" s="6"/>
-      <c r="S10" s="6"/>
-      <c r="T10" s="6"/>
-      <c r="U10" s="6"/>
-    </row>
-    <row r="11" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B11" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D11" s="31"/>
-      <c r="E11" s="32">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F11" s="22">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="G11" s="22">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="H11" s="22">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="I11" s="22">
-        <v>2.2000000000000002</v>
-      </c>
-      <c r="P11" s="6"/>
-      <c r="Q11" s="6"/>
-      <c r="R11" s="6"/>
-      <c r="S11" s="6"/>
-      <c r="T11" s="6"/>
-      <c r="U11" s="6"/>
-    </row>
-    <row r="12" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B12" s="14"/>
-      <c r="C12" s="14"/>
-      <c r="D12" s="27"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="14"/>
-      <c r="G12" s="14"/>
-      <c r="H12" s="14"/>
-      <c r="I12" s="14"/>
-    </row>
-    <row r="13" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B13" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="C13" s="19" t="s">
-        <v>78</v>
-      </c>
-      <c r="D13" s="29"/>
-      <c r="E13" s="30">
-        <v>2.2999999999999998</v>
-      </c>
-      <c r="F13" s="21">
-        <v>2.4</v>
-      </c>
-      <c r="G13" s="22">
-        <v>2.8</v>
-      </c>
-      <c r="H13" s="22">
-        <v>3.9</v>
-      </c>
-      <c r="I13" s="22">
-        <v>5.3</v>
-      </c>
-    </row>
-    <row r="14" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B14" s="14"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="27"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="14"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="14"/>
-      <c r="I14" s="14"/>
-    </row>
-    <row r="15" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B15" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" s="19" t="s">
-        <v>79</v>
-      </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="32">
-        <v>440</v>
-      </c>
-      <c r="F15" s="22">
-        <v>470</v>
-      </c>
-      <c r="G15" s="22">
-        <v>780</v>
-      </c>
-      <c r="H15" s="22">
-        <v>1790</v>
-      </c>
-      <c r="I15" s="22">
-        <v>3550</v>
-      </c>
-    </row>
-    <row r="16" spans="2:21" x14ac:dyDescent="0.25">
-      <c r="B16" s="14"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="14"/>
-      <c r="G16" s="14"/>
-      <c r="H16" s="14"/>
-      <c r="I16" s="14"/>
-    </row>
-    <row r="17" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="23" t="s">
-        <v>68</v>
-      </c>
-      <c r="C17" s="23"/>
-      <c r="D17" s="33"/>
-      <c r="E17" s="34">
-        <v>0</v>
-      </c>
-      <c r="F17" s="24">
+      <c r="F17" s="21">
         <v>2.9000000000000001E-2</v>
       </c>
-      <c r="G17" s="24">
+      <c r="G17" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="H17" s="24">
+      <c r="H17" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
-      <c r="I17" s="24">
+      <c r="I17" s="21">
         <v>7.4999999999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="2:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="C20" s="8"/>
-      <c r="D20" s="8"/>
-      <c r="E20" s="8"/>
-      <c r="F20" s="8"/>
-      <c r="G20" s="8"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="9"/>
+      <c r="B20" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="C20" s="7"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="7"/>
+      <c r="F20" s="7"/>
+      <c r="G20" s="7"/>
+      <c r="H20" s="7"/>
+      <c r="I20" s="8"/>
     </row>
     <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/Dokumentacija/bug list.xlsx
+++ b/Dokumentacija/bug list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alexander Meliochin\OneDrive - Nordic Transport Group\projektas\CentasPrieCento\Dokumentacija\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26D94A90-6F2E-4056-AAB0-92E43D613A7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B3911F5-FA2C-4AA6-88D5-F02798441ABE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="89">
   <si>
     <t>CPC-1</t>
   </si>
@@ -302,6 +302,9 @@
   </si>
   <si>
     <t>0032</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -648,6 +651,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-3F6B-4FEB-849C-082DA2CCC3B1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -663,6 +671,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-3F6B-4FEB-849C-082DA2CCC3B1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -678,6 +691,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-3F6B-4FEB-849C-082DA2CCC3B1}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -917,6 +935,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000001-B770-464C-BB81-0F2874EF2A8C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="1"/>
@@ -932,6 +955,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000003-B770-464C-BB81-0F2874EF2A8C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dPt>
             <c:idx val="2"/>
@@ -947,6 +975,11 @@
               </a:ln>
               <a:effectLst/>
             </c:spPr>
+            <c:extLst>
+              <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                <c16:uniqueId val="{00000005-B770-464C-BB81-0F2874EF2A8C}"/>
+              </c:ext>
+            </c:extLst>
           </c:dPt>
           <c:dLbls>
             <c:spPr>
@@ -2599,10 +2632,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B3:H40"/>
+  <dimension ref="B3:M40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="S28" sqref="S28"/>
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2815,7 +2848,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C17" s="2" t="s">
         <v>55</v>
       </c>
@@ -2832,7 +2865,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C18" s="2" t="s">
         <v>60</v>
       </c>
@@ -2849,7 +2882,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="19" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C19" s="2" t="s">
         <v>58</v>
       </c>
@@ -2866,7 +2899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C20" s="2" t="s">
         <v>57</v>
       </c>
@@ -2883,7 +2916,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="21" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C21" s="2" t="s">
         <v>61</v>
       </c>
@@ -2900,7 +2933,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="22" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:13" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>36</v>
       </c>
@@ -2921,10 +2954,10 @@
         <v>86</v>
       </c>
     </row>
-    <row r="23" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C23" s="2"/>
     </row>
-    <row r="24" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C24" s="2" t="s">
         <v>87</v>
       </c>
@@ -2932,7 +2965,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="25" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C25" s="2" t="s">
         <v>39</v>
       </c>
@@ -2940,15 +2973,18 @@
         <v>25</v>
       </c>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C26" s="2" t="s">
         <v>40</v>
       </c>
       <c r="D26" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="27" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C27" s="2" t="s">
         <v>41</v>
       </c>
@@ -2956,7 +2992,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C28" s="2" t="s">
         <v>42</v>
       </c>
@@ -2964,7 +3000,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C29" s="2" t="s">
         <v>43</v>
       </c>
@@ -2972,7 +3008,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C30" s="2" t="s">
         <v>44</v>
       </c>
@@ -2980,15 +3016,18 @@
         <v>30</v>
       </c>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C31" s="2" t="s">
         <v>45</v>
       </c>
       <c r="D31" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="K31" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="32" spans="2:13" x14ac:dyDescent="0.25">
       <c r="C32" s="2" t="s">
         <v>46</v>
       </c>
